--- a/NSGA-II_results_Ur/Pareto_results.xlsx
+++ b/NSGA-II_results_Ur/Pareto_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_origin\NAGA-II_results_Ur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_origin\NSGA-II_results_Ur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9133A79E-9E01-42E4-B2ED-D720A4282B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DEBFD0-2E82-4A41-8986-982138D759B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="28800" windowHeight="15345" activeTab="3" xr2:uid="{1A81E5A5-10EE-4702-80BE-BB3D55E8779A}"/>
+    <workbookView xWindow="-25125" yWindow="9945" windowWidth="21600" windowHeight="11055" xr2:uid="{1A81E5A5-10EE-4702-80BE-BB3D55E8779A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -188,112 +187,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>7373744.0952380951</c:v>
+                  <c:v>66626173.180158734</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7194989.4878306882</c:v>
+                  <c:v>66775277.74153439</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7381902.5047619045</c:v>
+                  <c:v>66938392.16190476</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7372829.6285714284</c:v>
+                  <c:v>67176193.828571424</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7248609.3174603172</c:v>
+                  <c:v>68004807.800264552</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7196983.4878306882</c:v>
+                  <c:v>68233018.133597881</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7411660</c:v>
+                  <c:v>63245161.24497354</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7405535.8666666662</c:v>
+                  <c:v>60906212.846957669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7417279</c:v>
+                  <c:v>61647958.346957676</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7411154.8666666662</c:v>
+                  <c:v>60851374.01362434</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7419499.333333334</c:v>
+                  <c:v>60951977.113624342</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7445109</c:v>
+                  <c:v>61693722.613624342</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7425132.7999999998</c:v>
+                  <c:v>60815276.313624337</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7419008.666666666</c:v>
+                  <c:v>62461608.624735445</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7430751.7999999998</c:v>
+                  <c:v>62641226.337433867</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7424627.666666666</c:v>
+                  <c:v>59389576.371957675</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7296018.3619047618</c:v>
+                  <c:v>60024783.449735455</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7347700.0285714278</c:v>
+                  <c:v>60413425.667989418</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7353319.0285714278</c:v>
+                  <c:v>60518739.490211636</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7330512.9619047623</c:v>
+                  <c:v>59922652.514021166</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7361319.0285714278</c:v>
+                  <c:v>60060688.704497345</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7426919.8571428563</c:v>
+                  <c:v>74422723.597883597</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7454749.8571428563</c:v>
+                  <c:v>74295821.197883591</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7448625.7238095244</c:v>
+                  <c:v>74470274.7978836</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7456970.1904761903</c:v>
+                  <c:v>74867761.827513233</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7434773.6571428562</c:v>
+                  <c:v>74612847.897883594</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7440392.6571428562</c:v>
+                  <c:v>75104720.215873018</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7434268.5238095243</c:v>
+                  <c:v>75052349.326984137</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7442612.9904761901</c:v>
+                  <c:v>75254259.049206346</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7298012.3619047618</c:v>
+                  <c:v>74176497.331349209</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7303631.3619047618</c:v>
+                  <c:v>74094919.896957666</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7355313.0285714278</c:v>
+                  <c:v>71548563.417592585</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7309927.0285714278</c:v>
+                  <c:v>71777263.650925934</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7039068.4433862427</c:v>
+                  <c:v>71513896.984259263</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7130732.3174603172</c:v>
+                  <c:v>72135501.786640212</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7044687.4433862427</c:v>
+                  <c:v>71960069.75806877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -305,112 +304,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>132932.89224871292</c:v>
+                  <c:v>2642238.1156874467</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130097.68490267752</c:v>
+                  <c:v>2664556.4206780726</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>133001.18405414021</c:v>
+                  <c:v>2682092.3168802806</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>132621.47379277169</c:v>
+                  <c:v>2702833.9844589648</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130443.28273292237</c:v>
+                  <c:v>2896133.0702466909</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>130243.83570026868</c:v>
+                  <c:v>3055509.1218254017</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>133676.79518287108</c:v>
+                  <c:v>2595716.7062839405</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>133113.46501990367</c:v>
+                  <c:v>2312253.5110008423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>134071.07095356443</c:v>
+                  <c:v>2316655.1924762479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>133507.74079059702</c:v>
+                  <c:v>2311409.523702547</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>134876.48633667422</c:v>
+                  <c:v>2314170.8002125276</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>140297.45040450091</c:v>
+                  <c:v>2318572.4816879332</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>135075.79681385629</c:v>
+                  <c:v>2289853.4436995517</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>134512.46665088888</c:v>
+                  <c:v>2384466.5482937382</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>135470.07258454966</c:v>
+                  <c:v>2462304.0713675586</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>134906.74242158225</c:v>
+                  <c:v>1383108.6008736196</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>130552.18626750492</c:v>
+                  <c:v>1417473.5514969677</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>131601.66865471806</c:v>
+                  <c:v>1575048.8845129225</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>131995.94442541141</c:v>
+                  <c:v>1616484.3118172651</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>131571.99140555854</c:v>
+                  <c:v>1521706.982403632</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>132317.66177930453</c:v>
+                  <c:v>1531074.8293768878</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>135225.16054358159</c:v>
+                  <c:v>1356834.2407285797</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>141451.53999451804</c:v>
+                  <c:v>1332375.8915424633</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>140888.20983155063</c:v>
+                  <c:v>1360931.5986836646</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>142256.95537762783</c:v>
+                  <c:v>1399741.0386216557</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>136229.88640387345</c:v>
+                  <c:v>1375135.2991666461</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>136624.16217456679</c:v>
+                  <c:v>1611986.9817628963</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>136060.83201159938</c:v>
+                  <c:v>1607900.6866209146</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>137429.57755767659</c:v>
+                  <c:v>1618901.2452854631</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>130698.33706509609</c:v>
+                  <c:v>1319656.0167231988</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>131092.61283578945</c:v>
+                  <c:v>1308938.8839600293</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>132142.0952230026</c:v>
+                  <c:v>874881.34779251495</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>131092.85309212396</c:v>
+                  <c:v>876120.51783392159</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>129437.58567399121</c:v>
+                  <c:v>860693.51475686766</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>129892.08703881862</c:v>
+                  <c:v>924640.24865312583</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>129831.86144468459</c:v>
+                  <c:v>913513.26605252887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -684,61 +683,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>7021200.0190476198</c:v>
+                  <c:v>54112953.280290999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7112863.8931216933</c:v>
+                  <c:v>56859698.814814813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7109238.8931216933</c:v>
+                  <c:v>56543311.93386244</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7023194.0190476198</c:v>
+                  <c:v>56774979.314814813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7114857.8931216933</c:v>
+                  <c:v>56562010.100529097</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6972566.6931216931</c:v>
+                  <c:v>55659385.003703706</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6923231.967195767</c:v>
+                  <c:v>55123922.948148146</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6900253.8857142851</c:v>
+                  <c:v>55618706.814814813</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7361639.4809523802</c:v>
+                  <c:v>53879809.063624337</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7365497.8222222216</c:v>
+                  <c:v>53795089.563624337</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7411660</c:v>
+                  <c:v>54075605.280290999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7405535.8666666662</c:v>
+                  <c:v>53152243.81600529</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7411154.8666666662</c:v>
+                  <c:v>54453410.332671963</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7222482.8142857142</c:v>
+                  <c:v>52964326.416005291</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7214697.5333333341</c:v>
+                  <c:v>53333076.493783072</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7226341.1555555547</c:v>
+                  <c:v>53304293.89378307</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7266379.2000000002</c:v>
+                  <c:v>53621812.706746034</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7394109.2952380953</c:v>
+                  <c:v>53560076.543783069</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7254952.6285714284</c:v>
+                  <c:v>53416804.750925928</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>7421300.8571428563</c:v>
@@ -759,61 +758,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>130491.96067337086</c:v>
+                  <c:v>1033915.4628362047</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130946.46203819827</c:v>
+                  <c:v>1200773.9010375149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130698.33706509609</c:v>
+                  <c:v>1180096.7429176797</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130638.11147096206</c:v>
+                  <c:v>1200773.9010375149</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>131092.61283578945</c:v>
+                  <c:v>1180096.7429176797</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>130389.40531334834</c:v>
+                  <c:v>1100601.8629004213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>130303.41513810605</c:v>
+                  <c:v>1068494.4847164445</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>129838.20961924456</c:v>
+                  <c:v>1100601.8629004213</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>132542.95942459046</c:v>
+                  <c:v>1027492.9119634727</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>132858.41068772995</c:v>
+                  <c:v>1027492.9119634727</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>133676.79518287108</c:v>
+                  <c:v>1033915.4628362047</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>133113.46501990367</c:v>
+                  <c:v>1016759.5677415106</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>133507.74079059702</c:v>
+                  <c:v>1035040.0795776355</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>131597.24770345882</c:v>
+                  <c:v>1016759.5677415106</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>131118.27091155888</c:v>
+                  <c:v>1021338.4104355942</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>131912.69896659831</c:v>
+                  <c:v>1020258.0752826021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>132167.75329877203</c:v>
+                  <c:v>1020430.6968485606</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>133015.98981979958</c:v>
+                  <c:v>1027235.7432883275</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>132070.27809866794</c:v>
+                  <c:v>1020258.0752826021</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>134830.88477288821</c:v>
@@ -1096,49 +1095,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>6998403.3767195763</c:v>
+                  <c:v>11256720.713492064</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7038441.4211640218</c:v>
+                  <c:v>11877527.913492063</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6871161.3767195763</c:v>
+                  <c:v>12577212.763492063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6911199.4211640218</c:v>
+                  <c:v>12272915.913492063</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7000397.3767195763</c:v>
+                  <c:v>12084107.861111112</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6913193.4211640218</c:v>
+                  <c:v>12020995.061111109</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7405535.8666666662</c:v>
+                  <c:v>12729356.711111112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7417279</c:v>
+                  <c:v>12720679.911111111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7411154.8666666662</c:v>
+                  <c:v>12416383.061111111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7445109</c:v>
+                  <c:v>12786359.511111112</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7430751.7999999998</c:v>
+                  <c:v>12777682.71111111</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7424627.666666666</c:v>
+                  <c:v>11333418.27777778</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7296018.3619047618</c:v>
+                  <c:v>11954225.477777777</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7335184.9619047623</c:v>
+                  <c:v>12653910.327777779</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7365738.8285714285</c:v>
+                  <c:v>12349613.477777777</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>7304018.3619047618</c:v>
@@ -1207,49 +1206,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>129853.33472453785</c:v>
+                  <c:v>208504.73662224019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130108.38905671157</c:v>
+                  <c:v>217323.16729805307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>129302.1390304341</c:v>
+                  <c:v>293004.17276809743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>129557.19336260782</c:v>
+                  <c:v>254877.32741613867</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>129999.48552212905</c:v>
+                  <c:v>254237.47662867504</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>129703.34416019902</c:v>
+                  <c:v>232819.34887281645</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>133113.46501990367</c:v>
+                  <c:v>396185.41142481088</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>134071.07095356443</c:v>
+                  <c:v>308500.35434286081</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>133507.74079059702</c:v>
+                  <c:v>270373.5089909021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>140297.45040450091</c:v>
+                  <c:v>524096.8137547354</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>135470.07258454966</c:v>
+                  <c:v>436411.75667278533</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>134906.74242158225</c:v>
+                  <c:v>209554.97261860492</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130552.18626750492</c:v>
+                  <c:v>218373.4032944178</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>131677.36247687344</c:v>
+                  <c:v>294054.40876446216</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>132559.51484471333</c:v>
+                  <c:v>255927.5634125034</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>130873.90362139801</c:v>
@@ -1580,46 +1579,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>7393621.2000000002</c:v>
+                  <c:v>21155555.282804232</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7429793.542857144</c:v>
+                  <c:v>21127212.616137568</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7405535.8666666662</c:v>
+                  <c:v>20189111.882804234</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7204354.4878306882</c:v>
+                  <c:v>21910758.482804231</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7296018.3619047618</c:v>
+                  <c:v>21332924.616137564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7347700.0285714278</c:v>
+                  <c:v>21652050.416137565</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7330512.9619047623</c:v>
+                  <c:v>21547634.682804234</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7382194.6285714284</c:v>
+                  <c:v>21831056.482804231</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7150559.8433862422</c:v>
+                  <c:v>20506592.549470898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7242223.7174603175</c:v>
+                  <c:v>20524041.327248678</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7307933.0285714278</c:v>
+                  <c:v>20682027.416137569</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7359614.6952380948</c:v>
+                  <c:v>20896737.482804231</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7023317.8433862422</c:v>
+                  <c:v>19990147.349470899</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7114981.7174603175</c:v>
+                  <c:v>33330511.247619048</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7063355.8878306886</c:v>
@@ -1715,46 +1714,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>132718.94899287578</c:v>
+                  <c:v>315559.86773511593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>135051.15458155787</c:v>
+                  <c:v>308095.35408391559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>133113.46501990367</c:v>
+                  <c:v>279564.85937501857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130097.68490267752</c:v>
+                  <c:v>419271.07577044901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130552.18626750492</c:v>
+                  <c:v>322945.31675089116</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>131601.66865471806</c:v>
+                  <c:v>335399.50943070307</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>131571.99140555854</c:v>
+                  <c:v>330630.09567626746</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>132621.47379277169</c:v>
+                  <c:v>378895.57493533462</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>129853.33472453785</c:v>
+                  <c:v>288255.71238832845</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>130307.83608936526</c:v>
+                  <c:v>293059.43297449435</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>130946.70229453278</c:v>
+                  <c:v>295641.16140410368</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>131996.18468174592</c:v>
+                  <c:v>303325.94032947998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>129302.1390304341</c:v>
+                  <c:v>276948.82411367889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>129756.64039526151</c:v>
+                  <c:v>795512.02022091998</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>129557.19336260782</c:v>
@@ -2112,49 +2111,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>7323577.6650793646</c:v>
+                  <c:v>31517791.974074073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7280010.1888888888</c:v>
+                  <c:v>33883518.857407406</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7329196.6650793646</c:v>
+                  <c:v>33594163.257407404</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7285629.1888888888</c:v>
+                  <c:v>34039859.724074073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7331416.9984126976</c:v>
+                  <c:v>33905061.924074076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7351407.6650793646</c:v>
+                  <c:v>34393254.835185185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7337050.4650793644</c:v>
+                  <c:v>34376785.024074078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7342669.4650793644</c:v>
+                  <c:v>34241987.224074073</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7298048.9888888886</c:v>
+                  <c:v>34176865.824074075</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7291924.8555555549</c:v>
+                  <c:v>34401645.735185184</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7297543.8555555549</c:v>
+                  <c:v>33111368.057407405</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7182407.3507936513</c:v>
+                  <c:v>33352667.724074073</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7234089.0174603174</c:v>
+                  <c:v>32893529.690740738</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7216901.9507936509</c:v>
+                  <c:v>32262868.390740741</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7312151.0936507937</c:v>
+                  <c:v>34548727.335185185</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>7194322.0174603174</c:v>
@@ -2235,49 +2234,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>134118.46439229793</c:v>
+                  <c:v>351089.75335148885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132718.94899287578</c:v>
+                  <c:v>410876.79690020438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>134512.74016299131</c:v>
+                  <c:v>409613.09059631499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133113.22476356916</c:v>
+                  <c:v>420896.77433957113</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>135318.1555461011</c:v>
+                  <c:v>420792.83342859725</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>140344.84384323441</c:v>
+                  <c:v>509684.17524728307</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>135517.46602328317</c:v>
+                  <c:v>467040.9382085409</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>135911.74179397651</c:v>
+                  <c:v>466936.99729756702</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>133676.79518287108</c:v>
+                  <c:v>426784.83988306753</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>133113.46501990367</c:v>
+                  <c:v>515036.90824684675</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>133507.74079059702</c:v>
+                  <c:v>364078.00985460548</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>130552.18626750492</c:v>
+                  <c:v>370620.69857473107</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>131601.66865471806</c:v>
+                  <c:v>352428.01357422816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>131571.99140555854</c:v>
+                  <c:v>351093.35355780018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>134020.98919219384</c:v>
+                  <c:v>565848.31655561947</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>130946.70229453278</c:v>
@@ -2620,73 +2619,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>7023255.0074074073</c:v>
+                  <c:v>36302590.148412704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7114918.8814814826</c:v>
+                  <c:v>36319231.755555555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7120537.8814814826</c:v>
+                  <c:v>36370959.044444449</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7166600.5481481487</c:v>
+                  <c:v>35663969.812301584</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7149413.4814814823</c:v>
+                  <c:v>35582506.291666672</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6969460.3629629631</c:v>
+                  <c:v>35697711.091666669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7061124.2370370375</c:v>
+                  <c:v>38678592.492592596</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7132452.5481481487</c:v>
+                  <c:v>38213407.468783073</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6987676.8814814826</c:v>
+                  <c:v>38939897.892592594</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6842218.3629629631</c:v>
+                  <c:v>37813352.776719578</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6933882.2370370375</c:v>
+                  <c:v>37865080.065608464</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6847837.3629629631</c:v>
+                  <c:v>37984052.765608467</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6985210.9629629627</c:v>
+                  <c:v>38026933.8989418</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7076874.8370370371</c:v>
+                  <c:v>38267802.848941796</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7025249.0074074073</c:v>
+                  <c:v>36852814.918518513</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7116912.8814814826</c:v>
+                  <c:v>37013719.618518516</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7122531.8814814826</c:v>
+                  <c:v>37061547.618518516</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7168594.5481481487</c:v>
+                  <c:v>37176792.029629633</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7134446.5481481487</c:v>
+                  <c:v>37084777.629629634</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7199935.1227513226</c:v>
+                  <c:v>37171943.429629631</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7237806.8862433862</c:v>
+                  <c:v>37256207.676719576</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7243831.5084656086</c:v>
+                  <c:v>37343373.476719573</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7283869.5529100522</c:v>
+                  <c:v>37236461.826719582</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>7289488.5529100522</c:v>
@@ -2743,73 +2742,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>130097.68490267752</c:v>
+                  <c:v>526899.30250869412</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130552.18626750492</c:v>
+                  <c:v>532357.36819372838</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130946.46203819827</c:v>
+                  <c:v>534683.19091851986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>131601.66865471806</c:v>
+                  <c:v>513344.71925697627</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>131571.99140555854</c:v>
+                  <c:v>512307.43377951131</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>129853.33472453785</c:v>
+                  <c:v>522945.46432986716</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>130307.83608936526</c:v>
+                  <c:v>729136.63581628771</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>131340.97806522614</c:v>
+                  <c:v>677238.60322651721</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130000.99057340114</c:v>
+                  <c:v>746054.32727026194</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>129302.1390304341</c:v>
+                  <c:v>590568.09846261202</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>129756.64039526151</c:v>
+                  <c:v>592893.9211874035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>129696.41480112745</c:v>
+                  <c:v>602013.23203003267</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>129988.78136809496</c:v>
+                  <c:v>670917.32793091971</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>130443.28273292237</c:v>
+                  <c:v>692282.01843059435</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>130243.83570026868</c:v>
+                  <c:v>538836.29146822076</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>130698.33706509609</c:v>
+                  <c:v>543760.79018985876</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>131092.61283578945</c:v>
+                  <c:v>544001.38219427143</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>131747.81945230922</c:v>
+                  <c:v>569803.17811002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>131487.12886281731</c:v>
+                  <c:v>552680.2847780321</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>131893.38906538888</c:v>
+                  <c:v>560678.4816438331</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>132063.74237635601</c:v>
+                  <c:v>581210.32009548077</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>132463.89466070206</c:v>
+                  <c:v>589208.51696128177</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>132718.94899287578</c:v>
+                  <c:v>576341.75574194803</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>133113.22476356916</c:v>
@@ -3128,46 +3127,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>7222622.5746031757</c:v>
+                  <c:v>32815516.828571428</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7238373.1746031754</c:v>
+                  <c:v>32499028.509523809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7393621.2000000002</c:v>
+                  <c:v>30957625.208862431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7405535.8666666662</c:v>
+                  <c:v>35365151.201058201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7417279</c:v>
+                  <c:v>34440280.180952385</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7411154.8666666662</c:v>
+                  <c:v>34656554.180952385</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7425132.7999999998</c:v>
+                  <c:v>34096681.280952379</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7419008.666666666</c:v>
+                  <c:v>33886528.747619048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7430751.7999999998</c:v>
+                  <c:v>34628880.180952385</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7296018.3619047618</c:v>
+                  <c:v>35040329.380952381</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7347700.0285714278</c:v>
+                  <c:v>35241403.155952379</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7330512.9619047623</c:v>
+                  <c:v>34830176.847619049</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7382194.6285714284</c:v>
+                  <c:v>34683491.714285709</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7359614.6952380948</c:v>
+                  <c:v>33330511.247619048</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7304018.3619047618</c:v>
@@ -3245,46 +3244,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>130307.83608936526</c:v>
+                  <c:v>716872.12995376077</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130443.28273292237</c:v>
+                  <c:v>688807.70836926554</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132718.94899287578</c:v>
+                  <c:v>681533.14509169047</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133113.46501990367</c:v>
+                  <c:v>1164828.5759167809</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134071.07095356443</c:v>
+                  <c:v>870393.05224114528</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>133507.74079059702</c:v>
+                  <c:v>993049.63520226255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>135075.79681385629</c:v>
+                  <c:v>838227.87399246171</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>134512.46665088888</c:v>
+                  <c:v>825637.46032037016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>135470.07258454966</c:v>
+                  <c:v>906888.6872903466</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>130552.18626750492</c:v>
+                  <c:v>1088621.485354813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>131601.66865471806</c:v>
+                  <c:v>1130169.1969196838</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>131571.99140555854</c:v>
+                  <c:v>1076031.0716827216</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>132621.47379277169</c:v>
+                  <c:v>1074243.2879926795</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>131996.18468174592</c:v>
+                  <c:v>795512.02022091998</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>130873.90362139801</c:v>
@@ -3624,67 +3623,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>7399745.333333334</c:v>
+                  <c:v>39735875.243915342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7437188.6761904759</c:v>
+                  <c:v>39767285.843915343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7393621.2000000002</c:v>
+                  <c:v>39822009.058730163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7405364.333333334</c:v>
+                  <c:v>39647612.548677251</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7442807.6761904759</c:v>
+                  <c:v>39554002.148677252</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7470637.6761904759</c:v>
+                  <c:v>40030122.434391536</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7472858.0095238099</c:v>
+                  <c:v>40087577.310582012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7456280.4761904757</c:v>
+                  <c:v>40253559.817989416</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7458500.8095238097</c:v>
+                  <c:v>38472723.179629631</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7204354.4878306882</c:v>
+                  <c:v>38895015.57962963</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7347700.0285714278</c:v>
+                  <c:v>38836851.6462963</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7425762.104761905</c:v>
+                  <c:v>39118835.379629627</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7382194.6285714284</c:v>
+                  <c:v>40735151.777910046</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7150559.8433862422</c:v>
+                  <c:v>40804486.877910055</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7242223.7174603175</c:v>
+                  <c:v>35411827.887962967</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7282261.7619047621</c:v>
+                  <c:v>35443238.487962969</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7313552.0285714278</c:v>
+                  <c:v>36284462.273148149</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7023317.8433862422</c:v>
+                  <c:v>36265287.623148151</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7114981.7174603175</c:v>
+                  <c:v>36845652.462037034</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7063355.8878306886</c:v>
+                  <c:v>39476695.894708999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7355700.0285714278</c:v>
+                  <c:v>39315757.105820104</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>7447234.9047619049</c:v>
@@ -3750,67 +3749,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>133282.27915584319</c:v>
+                  <c:v>974104.28526554001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>134118.46439229793</c:v>
+                  <c:v>981855.44023208565</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132718.94899287578</c:v>
+                  <c:v>982996.05194077443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133676.55492653657</c:v>
+                  <c:v>968184.43789945752</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134512.74016299131</c:v>
+                  <c:v>959424.48418645316</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>140739.11961392776</c:v>
+                  <c:v>1010304.0758344093</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>141544.53499703755</c:v>
+                  <c:v>1035661.695259431</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>135911.74179397651</c:v>
+                  <c:v>1088602.6199767513</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>136717.15717708631</c:v>
+                  <c:v>864892.18397625326</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>130097.68490267752</c:v>
+                  <c:v>924522.86590659525</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>131601.66865471806</c:v>
+                  <c:v>907925.20019457769</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>134020.98919219384</c:v>
+                  <c:v>932274.02087314101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>132621.47379277169</c:v>
+                  <c:v>1176375.0306284525</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>129853.33472453785</c:v>
+                  <c:v>1194629.8804470352</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>130307.83608936526</c:v>
+                  <c:v>789563.77143563121</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>130562.89042153898</c:v>
+                  <c:v>797314.92640217696</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>131340.97806522614</c:v>
+                  <c:v>802291.67748142383</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>129302.1390304341</c:v>
+                  <c:v>801106.84043913335</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>129756.64039526151</c:v>
+                  <c:v>813919.76251712232</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>129557.19336260782</c:v>
+                  <c:v>948474.98216911231</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>131923.38600861115</c:v>
+                  <c:v>936846.89713341382</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>135741.70817707217</c:v>
@@ -4138,31 +4137,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>7141740.7719576713</c:v>
+                  <c:v>45731874.172619052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7014498.7719576713</c:v>
+                  <c:v>45787953.639285713</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7437188.6761904759</c:v>
+                  <c:v>44918588.472619049</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7393621.2000000002</c:v>
+                  <c:v>43250819.75515873</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7439026.4095238093</c:v>
+                  <c:v>44765601.645634919</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7411660</c:v>
+                  <c:v>42222611.261507928</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7405535.8666666662</c:v>
+                  <c:v>42394389.690079361</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7411154.8666666662</c:v>
+                  <c:v>42212427.147222228</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7296018.3619047618</c:v>
+                  <c:v>44113405.140079364</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7347700.0285714278</c:v>
@@ -4249,31 +4248,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>129988.78136809496</c:v>
+                  <c:v>1427401.900470492</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129437.58567399121</c:v>
+                  <c:v>1429085.8179495668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>134118.46439229793</c:v>
+                  <c:v>1424783.0219194377</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>132718.94899287578</c:v>
+                  <c:v>907103.1753127249</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>135013.34167779525</c:v>
+                  <c:v>1002034.7603084244</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>133676.79518287108</c:v>
+                  <c:v>886556.19953529397</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>133113.46501990367</c:v>
+                  <c:v>888784.2254103946</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>133507.74079059702</c:v>
+                  <c:v>886556.19953529397</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130552.18626750492</c:v>
+                  <c:v>943499.81273675233</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>131601.66865471806</c:v>
@@ -4622,40 +4621,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>7342638.130687831</c:v>
+                  <c:v>51998258.7260582</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7384429.4735449729</c:v>
+                  <c:v>51267094.150793649</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7412259.4735449729</c:v>
+                  <c:v>51587105.700793646</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7397902.2735449728</c:v>
+                  <c:v>51628637.311904766</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7153371.418518519</c:v>
+                  <c:v>51656650.800793648</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7245035.2925925925</c:v>
+                  <c:v>50496278.509126984</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7302335.9592592595</c:v>
+                  <c:v>49855486.209126987</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7331211.5592592591</c:v>
+                  <c:v>49180313.237301581</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7256949.9592592595</c:v>
+                  <c:v>49083809.937301576</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7352199.1021164013</c:v>
+                  <c:v>49188804.903968252</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7308631.6259259256</c:v>
+                  <c:v>50844718.423412696</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7343126.2259259252</c:v>
+                  <c:v>50465944.309126981</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>7026129.418518519</c:v>
@@ -4751,40 +4750,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>132718.94899287578</c:v>
+                  <c:v>1506763.4231877392</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>135445.43035225125</c:v>
+                  <c:v>1260491.4491437494</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>141671.8098031877</c:v>
+                  <c:v>1298898.2736159367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>136844.43198323646</c:v>
+                  <c:v>1306646.6753654028</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130097.68490267752</c:v>
+                  <c:v>1325656.3389426707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>130552.18626750492</c:v>
+                  <c:v>1120083.8790308386</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>131995.94442541141</c:v>
+                  <c:v>1092651.6793057565</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>132621.47379277169</c:v>
+                  <c:v>1080316.9940889471</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130946.70229453278</c:v>
+                  <c:v>1077512.3815146966</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>133395.70008116806</c:v>
+                  <c:v>1085949.155871341</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>131996.18468174592</c:v>
+                  <c:v>1143217.6841060813</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>133015.98981979958</c:v>
+                  <c:v>1116980.5377277643</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>129546.48920857374</c:v>
@@ -11327,300 +11326,492 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFED260A-8052-4D81-9834-0A28613A6836}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>7373744.0952380951</v>
+        <v>66626173.180158734</v>
       </c>
       <c r="B1">
-        <v>132932.89224871292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2642238.1156874467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>7194989.4878306882</v>
+        <v>66775277.74153439</v>
       </c>
       <c r="B2">
-        <v>130097.68490267752</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2664556.4206780726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>7381902.5047619045</v>
+        <v>66938392.16190476</v>
       </c>
       <c r="B3">
-        <v>133001.18405414021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2682092.3168802806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>7372829.6285714284</v>
+        <v>67176193.828571424</v>
       </c>
       <c r="B4">
-        <v>132621.47379277169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2702833.9844589648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>7248609.3174603172</v>
+        <v>68004807.800264552</v>
       </c>
       <c r="B5">
-        <v>130443.28273292237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2896133.0702466909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>7196983.4878306882</v>
+        <v>68233018.133597881</v>
       </c>
       <c r="B6">
-        <v>130243.83570026868</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3055509.1218254017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>7411660</v>
+        <v>63245161.24497354</v>
       </c>
       <c r="B7">
-        <v>133676.79518287108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2595716.7062839405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>7405535.8666666662</v>
+        <v>60906212.846957669</v>
       </c>
       <c r="B8">
-        <v>133113.46501990367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2312253.5110008423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>7417279</v>
+        <v>61647958.346957676</v>
       </c>
       <c r="B9">
-        <v>134071.07095356443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2316655.1924762479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>7411154.8666666662</v>
+        <v>60851374.01362434</v>
       </c>
       <c r="B10">
-        <v>133507.74079059702</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2311409.523702547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>7419499.333333334</v>
+        <v>60951977.113624342</v>
       </c>
       <c r="B11">
-        <v>134876.48633667422</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2314170.8002125276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>7445109</v>
+        <v>61693722.613624342</v>
       </c>
       <c r="B12">
-        <v>140297.45040450091</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2318572.4816879332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>7425132.7999999998</v>
+        <v>60815276.313624337</v>
       </c>
       <c r="B13">
-        <v>135075.79681385629</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2289853.4436995517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>7419008.666666666</v>
+        <v>62461608.624735445</v>
       </c>
       <c r="B14">
-        <v>134512.46665088888</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2384466.5482937382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>7430751.7999999998</v>
+        <v>62641226.337433867</v>
       </c>
       <c r="B15">
-        <v>135470.07258454966</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2462304.0713675586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>7424627.666666666</v>
+        <v>59389576.371957675</v>
       </c>
       <c r="B16">
-        <v>134906.74242158225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1383108.6008736196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>7296018.3619047618</v>
+        <v>60024783.449735455</v>
       </c>
       <c r="B17">
-        <v>130552.18626750492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1417473.5514969677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>7347700.0285714278</v>
+        <v>60413425.667989418</v>
       </c>
       <c r="B18">
-        <v>131601.66865471806</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1575048.8845129225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>7353319.0285714278</v>
+        <v>60518739.490211636</v>
       </c>
       <c r="B19">
-        <v>131995.94442541141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1616484.3118172651</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>7330512.9619047623</v>
+        <v>59922652.514021166</v>
       </c>
       <c r="B20">
-        <v>131571.99140555854</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1521706.982403632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>7361319.0285714278</v>
+        <v>60060688.704497345</v>
       </c>
       <c r="B21">
-        <v>132317.66177930453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1531074.8293768878</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>7426919.8571428563</v>
+        <v>74422723.597883597</v>
       </c>
       <c r="B22">
-        <v>135225.16054358159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1356834.2407285797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>7454749.8571428563</v>
+        <v>74295821.197883591</v>
       </c>
       <c r="B23">
-        <v>141451.53999451804</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1332375.8915424633</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>7448625.7238095244</v>
+        <v>74470274.7978836</v>
       </c>
       <c r="B24">
-        <v>140888.20983155063</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1360931.5986836646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>7456970.1904761903</v>
+        <v>74867761.827513233</v>
       </c>
       <c r="B25">
-        <v>142256.95537762783</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1399741.0386216557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>7434773.6571428562</v>
+        <v>74612847.897883594</v>
       </c>
       <c r="B26">
-        <v>136229.88640387345</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1375135.2991666461</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>7440392.6571428562</v>
+        <v>75104720.215873018</v>
       </c>
       <c r="B27">
-        <v>136624.16217456679</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1611986.9817628963</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>7434268.5238095243</v>
+        <v>75052349.326984137</v>
       </c>
       <c r="B28">
-        <v>136060.83201159938</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1607900.6866209146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>7442612.9904761901</v>
+        <v>75254259.049206346</v>
       </c>
       <c r="B29">
-        <v>137429.57755767659</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1618901.2452854631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>7298012.3619047618</v>
+        <v>74176497.331349209</v>
       </c>
       <c r="B30">
-        <v>130698.33706509609</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1319656.0167231988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>7303631.3619047618</v>
+        <v>74094919.896957666</v>
       </c>
       <c r="B31">
-        <v>131092.61283578945</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1308938.8839600293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>7355313.0285714278</v>
+        <v>71548563.417592585</v>
       </c>
       <c r="B32">
-        <v>132142.0952230026</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>874881.34779251495</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>7309927.0285714278</v>
+        <v>71777263.650925934</v>
       </c>
       <c r="B33">
-        <v>131092.85309212396</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>876120.51783392159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>7039068.4433862427</v>
+        <v>71513896.984259263</v>
       </c>
       <c r="B34">
-        <v>129437.58567399121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>860693.51475686766</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>7130732.3174603172</v>
+        <v>72135501.786640212</v>
       </c>
       <c r="B35">
-        <v>129892.08703881862</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>924640.24865312583</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>7044687.4433862427</v>
+        <v>71960069.75806877</v>
       </c>
       <c r="B36">
-        <v>129831.86144468459</v>
+        <v>913513.26605252887</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>72349504.872354507</v>
+      </c>
+      <c r="B37">
+        <v>955630.8447818011</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>72077999.786640212</v>
+      </c>
+      <c r="B38">
+        <v>923604.81263997417</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>72216057.186640203</v>
+      </c>
+      <c r="B39">
+        <v>954830.17383445078</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>72504728.80568783</v>
+      </c>
+      <c r="B40">
+        <v>965569.7650821039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>72578476.786640212</v>
+      </c>
+      <c r="B41">
+        <v>980645.2626381407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>72571801.605687827</v>
+      </c>
+      <c r="B42">
+        <v>975711.3420517327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>72445447.422354504</v>
+      </c>
+      <c r="B43">
+        <v>960128.89074117423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>71925494.469179899</v>
+      </c>
+      <c r="B44">
+        <v>905562.05751922203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>72198360.261772484</v>
+      </c>
+      <c r="B45">
+        <v>934197.60151011473</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>68359123.71243386</v>
+      </c>
+      <c r="B46">
+        <v>801397.11545827193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>68331400.679100543</v>
+      </c>
+      <c r="B47">
+        <v>799595.96773119434</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>66979575.198941797</v>
+      </c>
+      <c r="B48">
+        <v>782673.91152044875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>68140245.267592594</v>
+      </c>
+      <c r="B49">
+        <v>796307.64014786109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>67762287.983068794</v>
+      </c>
+      <c r="B50">
+        <v>791774.79799935094</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>67605004.427513227</v>
+      </c>
+      <c r="B51">
+        <v>785955.867162365</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>68562403.683862433</v>
+      </c>
+      <c r="B52">
+        <v>803125.03230618243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>68728062.288624346</v>
+      </c>
+      <c r="B53">
+        <v>803478.40813753742</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>70871412.301322758</v>
+      </c>
+      <c r="B54">
+        <v>856007.91469973477</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>70872118.501322761</v>
+      </c>
+      <c r="B55">
+        <v>858580.91378630348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>70606248.551322758</v>
+      </c>
+      <c r="B56">
+        <v>846071.81634612544</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>70003950.151322752</v>
+      </c>
+      <c r="B57">
+        <v>838825.04188126151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>69145450.335449725</v>
+      </c>
+      <c r="B58">
+        <v>833017.77268509567</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>69040863.078306884</v>
+      </c>
+      <c r="B59">
+        <v>813948.77117047936</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>68981369.078306884</v>
+      </c>
+      <c r="B60">
+        <v>805997.56263717252</v>
       </c>
     </row>
   </sheetData>
@@ -11635,164 +11826,164 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B22"/>
+      <selection sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>7021200.0190476198</v>
+        <v>54112953.280290999</v>
       </c>
       <c r="B1">
-        <v>130491.96067337086</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1033915.4628362047</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>7112863.8931216933</v>
+        <v>56859698.814814813</v>
       </c>
       <c r="B2">
-        <v>130946.46203819827</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1200773.9010375149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>7109238.8931216933</v>
+        <v>56543311.93386244</v>
       </c>
       <c r="B3">
-        <v>130698.33706509609</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1180096.7429176797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>7023194.0190476198</v>
+        <v>56774979.314814813</v>
       </c>
       <c r="B4">
-        <v>130638.11147096206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1200773.9010375149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>7114857.8931216933</v>
+        <v>56562010.100529097</v>
       </c>
       <c r="B5">
-        <v>131092.61283578945</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1180096.7429176797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>6972566.6931216931</v>
+        <v>55659385.003703706</v>
       </c>
       <c r="B6">
-        <v>130389.40531334834</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1100601.8629004213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>6923231.967195767</v>
+        <v>55123922.948148146</v>
       </c>
       <c r="B7">
-        <v>130303.41513810605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1068494.4847164445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>6900253.8857142851</v>
+        <v>55618706.814814813</v>
       </c>
       <c r="B8">
-        <v>129838.20961924456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1100601.8629004213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>7361639.4809523802</v>
+        <v>53879809.063624337</v>
       </c>
       <c r="B9">
-        <v>132542.95942459046</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1027492.9119634727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>7365497.8222222216</v>
+        <v>53795089.563624337</v>
       </c>
       <c r="B10">
-        <v>132858.41068772995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1027492.9119634727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>7411660</v>
+        <v>54075605.280290999</v>
       </c>
       <c r="B11">
-        <v>133676.79518287108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1033915.4628362047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>7405535.8666666662</v>
+        <v>53152243.81600529</v>
       </c>
       <c r="B12">
-        <v>133113.46501990367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1016759.5677415106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>7411154.8666666662</v>
+        <v>54453410.332671963</v>
       </c>
       <c r="B13">
-        <v>133507.74079059702</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1035040.0795776355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>7222482.8142857142</v>
+        <v>52964326.416005291</v>
       </c>
       <c r="B14">
-        <v>131597.24770345882</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1016759.5677415106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>7214697.5333333341</v>
+        <v>53333076.493783072</v>
       </c>
       <c r="B15">
-        <v>131118.27091155888</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1021338.4104355942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>7226341.1555555547</v>
+        <v>53304293.89378307</v>
       </c>
       <c r="B16">
-        <v>131912.69896659831</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1020258.0752826021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>7266379.2000000002</v>
+        <v>53621812.706746034</v>
       </c>
       <c r="B17">
-        <v>132167.75329877203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1020430.6968485606</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>7394109.2952380953</v>
+        <v>53560076.543783069</v>
       </c>
       <c r="B18">
-        <v>133015.98981979958</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1027235.7432883275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>7254952.6285714284</v>
+        <v>53416804.750925928</v>
       </c>
       <c r="B19">
-        <v>132070.27809866794</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1020258.0752826021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>7421300.8571428563</v>
       </c>
@@ -11800,7 +11991,7 @@
         <v>134830.88477288821</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>7415176.7238095244</v>
       </c>
@@ -11808,7 +11999,7 @@
         <v>134267.5546099208</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>7429140.1904761903</v>
       </c>
@@ -11820,6 +12011,118 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C2D5E0-FDA6-4AFE-8073-FE5EDBA16758}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>64047987.741005287</v>
+      </c>
+      <c r="B1">
+        <v>1315218.2638878289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>65811305.363227509</v>
+      </c>
+      <c r="B2">
+        <v>1400692.6893289099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>66918423.563227512</v>
+      </c>
+      <c r="B3">
+        <v>1410809.7348218895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>65793995.221560851</v>
+      </c>
+      <c r="B4">
+        <v>1392441.7935596046</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>66901113.421560846</v>
+      </c>
+      <c r="B5">
+        <v>1402558.8390525843</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>65562108.871560849</v>
+      </c>
+      <c r="B6">
+        <v>1355002.4698779697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>63481932.404894181</v>
+      </c>
+      <c r="B7">
+        <v>1232735.9598835681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>65052630.414417982</v>
+      </c>
+      <c r="B8">
+        <v>1329272.5812262602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>65588798.364417985</v>
+      </c>
+      <c r="B9">
+        <v>1382469.0124205113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>62890464.833465606</v>
+      </c>
+      <c r="B10">
+        <v>1201503.2470215282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>63157094.304894187</v>
+      </c>
+      <c r="B11">
+        <v>1229141.7094003519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>67314783.123412699</v>
+      </c>
+      <c r="B12">
+        <v>1708208.5293683587</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11828,132 +12131,132 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B34"/>
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>6998403.3767195763</v>
+        <v>11256720.713492064</v>
       </c>
       <c r="B1">
-        <v>129853.33472453785</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>208504.73662224019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>7038441.4211640218</v>
+        <v>11877527.913492063</v>
       </c>
       <c r="B2">
-        <v>130108.38905671157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>217323.16729805307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>6871161.3767195763</v>
+        <v>12577212.763492063</v>
       </c>
       <c r="B3">
-        <v>129302.1390304341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>293004.17276809743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>6911199.4211640218</v>
+        <v>12272915.913492063</v>
       </c>
       <c r="B4">
-        <v>129557.19336260782</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>254877.32741613867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>7000397.3767195763</v>
+        <v>12084107.861111112</v>
       </c>
       <c r="B5">
-        <v>129999.48552212905</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>254237.47662867504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>6913193.4211640218</v>
+        <v>12020995.061111109</v>
       </c>
       <c r="B6">
-        <v>129703.34416019902</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>232819.34887281645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>7405535.8666666662</v>
+        <v>12729356.711111112</v>
       </c>
       <c r="B7">
-        <v>133113.46501990367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>396185.41142481088</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>7417279</v>
+        <v>12720679.911111111</v>
       </c>
       <c r="B8">
-        <v>134071.07095356443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>308500.35434286081</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>7411154.8666666662</v>
+        <v>12416383.061111111</v>
       </c>
       <c r="B9">
-        <v>133507.74079059702</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>270373.5089909021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>7445109</v>
+        <v>12786359.511111112</v>
       </c>
       <c r="B10">
-        <v>140297.45040450091</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>524096.8137547354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>7430751.7999999998</v>
+        <v>12777682.71111111</v>
       </c>
       <c r="B11">
-        <v>135470.07258454966</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>436411.75667278533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>7424627.666666666</v>
+        <v>11333418.27777778</v>
       </c>
       <c r="B12">
-        <v>134906.74242158225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>209554.97261860492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>7296018.3619047618</v>
+        <v>11954225.477777777</v>
       </c>
       <c r="B13">
-        <v>130552.18626750492</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>218373.4032944178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>7335184.9619047623</v>
+        <v>12653910.327777779</v>
       </c>
       <c r="B14">
-        <v>131677.36247687344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>294054.40876446216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>7365738.8285714285</v>
+        <v>12349613.477777777</v>
       </c>
       <c r="B15">
-        <v>132559.51484471333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>255927.5634125034</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>7304018.3619047618</v>
       </c>
@@ -11961,7 +12264,7 @@
         <v>130873.90362139801</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>7390194.6285714284</v>
       </c>
@@ -11969,7 +12272,7 @@
         <v>132943.19114666482</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>7315933.0285714278</v>
       </c>
@@ -11977,7 +12280,7 @@
         <v>131268.41964842589</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>7426919.8571428563</v>
       </c>
@@ -11985,7 +12288,7 @@
         <v>135225.16054358159</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>7420795.7238095244</v>
       </c>
@@ -11993,7 +12296,7 @@
         <v>134661.83038061418</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>7454749.8571428563</v>
       </c>
@@ -12001,7 +12304,7 @@
         <v>141451.53999451804</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>7448625.7238095244</v>
       </c>
@@ -12009,7 +12312,7 @@
         <v>140888.20983155063</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>7456970.1904761903</v>
       </c>
@@ -12017,7 +12320,7 @@
         <v>142256.95537762783</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>7434773.6571428562</v>
       </c>
@@ -12025,7 +12328,7 @@
         <v>136229.88640387345</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>7440392.6571428562</v>
       </c>
@@ -12033,7 +12336,7 @@
         <v>136624.16217456679</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>7442612.9904761901</v>
       </c>
@@ -12041,7 +12344,7 @@
         <v>137429.57755767659</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>7206348.4878306882</v>
       </c>
@@ -12049,7 +12352,7 @@
         <v>130243.83570026868</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>7298012.3619047618</v>
       </c>
@@ -12057,7 +12360,7 @@
         <v>130698.33706509609</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>7349694.0285714278</v>
       </c>
@@ -12065,7 +12368,7 @@
         <v>131747.81945230922</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>7367732.8285714285</v>
       </c>
@@ -12073,7 +12376,7 @@
         <v>132705.66564230452</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>7361608.6952380948</v>
       </c>
@@ -12081,7 +12384,7 @@
         <v>132142.33547933711</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>7301355.6952380948</v>
       </c>
@@ -12089,7 +12392,7 @@
         <v>130872.69597924927</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>7371076.1619047625</v>
       </c>
@@ -12097,7 +12400,7 @@
         <v>132880.02455645771</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>7364952.0285714278</v>
       </c>
@@ -12117,124 +12420,124 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B42"/>
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>7393621.2000000002</v>
+        <v>21155555.282804232</v>
       </c>
       <c r="B1">
-        <v>132718.94899287578</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>315559.86773511593</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>7429793.542857144</v>
+        <v>21127212.616137568</v>
       </c>
       <c r="B2">
-        <v>135051.15458155787</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>308095.35408391559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>7405535.8666666662</v>
+        <v>20189111.882804234</v>
       </c>
       <c r="B3">
-        <v>133113.46501990367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>279564.85937501857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>7204354.4878306882</v>
+        <v>21910758.482804231</v>
       </c>
       <c r="B4">
-        <v>130097.68490267752</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>419271.07577044901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>7296018.3619047618</v>
+        <v>21332924.616137564</v>
       </c>
       <c r="B5">
-        <v>130552.18626750492</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>322945.31675089116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>7347700.0285714278</v>
+        <v>21652050.416137565</v>
       </c>
       <c r="B6">
-        <v>131601.66865471806</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>335399.50943070307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>7330512.9619047623</v>
+        <v>21547634.682804234</v>
       </c>
       <c r="B7">
-        <v>131571.99140555854</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>330630.09567626746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>7382194.6285714284</v>
+        <v>21831056.482804231</v>
       </c>
       <c r="B8">
-        <v>132621.47379277169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>378895.57493533462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>7150559.8433862422</v>
+        <v>20506592.549470898</v>
       </c>
       <c r="B9">
-        <v>129853.33472453785</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>288255.71238832845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>7242223.7174603175</v>
+        <v>20524041.327248678</v>
       </c>
       <c r="B10">
-        <v>130307.83608936526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>293059.43297449435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>7307933.0285714278</v>
+        <v>20682027.416137569</v>
       </c>
       <c r="B11">
-        <v>130946.70229453278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>295641.16140410368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>7359614.6952380948</v>
+        <v>20896737.482804231</v>
       </c>
       <c r="B12">
-        <v>131996.18468174592</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>303325.94032947998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>7023317.8433862422</v>
+        <v>19990147.349470899</v>
       </c>
       <c r="B13">
-        <v>129302.1390304341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>276948.82411367889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>7114981.7174603175</v>
+        <v>33330511.247619048</v>
       </c>
       <c r="B14">
-        <v>129756.64039526151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>795512.02022091998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>7063355.8878306886</v>
       </c>
@@ -12242,7 +12545,7 @@
         <v>129557.19336260782</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>7355700.0285714278</v>
       </c>
@@ -12250,7 +12553,7 @@
         <v>131923.38600861115</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>7315933.0285714278</v>
       </c>
@@ -12258,7 +12561,7 @@
         <v>131268.41964842589</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>7411182.1714285715</v>
       </c>
@@ -12266,7 +12569,7 @@
         <v>133717.41743506119</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>7367614.6952380948</v>
       </c>
@@ -12274,7 +12577,7 @@
         <v>132317.90203563904</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>7440348.8666666662</v>
       </c>
@@ -12282,7 +12585,7 @@
         <v>136516.66262751623</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>7424249.5999999996</v>
       </c>
@@ -12290,7 +12593,7 @@
         <v>134647.26487128931</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>7432088.9333333336</v>
       </c>
@@ -12298,7 +12601,7 @@
         <v>135846.95602509246</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>7439434.4000000004</v>
       </c>
@@ -12306,7 +12609,7 @@
         <v>136205.24417157503</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>7415176.7238095244</v>
       </c>
@@ -12314,7 +12617,7 @@
         <v>134267.5546099208</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>7457698.5999999996</v>
       </c>
@@ -12322,7 +12625,7 @@
         <v>141267.92009291914</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>7459918.9333333336</v>
       </c>
@@ -12330,7 +12633,7 @@
         <v>142073.33547602894</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>7467264.4000000004</v>
       </c>
@@ -12338,7 +12641,7 @@
         <v>142431.62362251151</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>7437722.4000000004</v>
       </c>
@@ -12346,7 +12649,7 @@
         <v>136046.26650227452</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>7452907.2000000002</v>
       </c>
@@ -12354,7 +12657,7 @@
         <v>137604.24580256024</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>7441272.1333333338</v>
       </c>
@@ -12362,7 +12665,7 @@
         <v>137100.12145707232</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>7166310.4433862427</v>
       </c>
@@ -12370,7 +12673,7 @@
         <v>129988.78136809496</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>7257974.3174603172</v>
       </c>
@@ -12378,7 +12681,7 @@
         <v>130443.28273292237</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>7206348.4878306882</v>
       </c>
@@ -12386,7 +12689,7 @@
         <v>130243.83570026868</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>7309927.0285714278</v>
       </c>
@@ -12394,7 +12697,7 @@
         <v>131092.85309212396</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>7361608.6952380948</v>
       </c>
@@ -12402,7 +12705,7 @@
         <v>132142.33547933711</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>7039068.4433862427</v>
       </c>
@@ -12410,7 +12713,7 @@
         <v>129437.58567399121</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>7301355.6952380948</v>
       </c>
@@ -12418,7 +12721,7 @@
         <v>130872.69597924927</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>7353037.3619047618</v>
       </c>
@@ -12426,7 +12729,7 @@
         <v>131922.17836646241</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>7313270.3619047618</v>
       </c>
@@ -12434,7 +12737,7 @@
         <v>131267.21200627714</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>7408519.5047619045</v>
       </c>
@@ -12442,7 +12745,7 @@
         <v>133716.20979291244</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>7364952.0285714278</v>
       </c>
@@ -12450,7 +12753,7 @@
         <v>132316.6943934903</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>7414138.5047619045</v>
       </c>
@@ -12469,133 +12772,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB2099C-F784-4C36-B477-51730A355491}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B38"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>7323577.6650793646</v>
+        <v>31517791.974074073</v>
       </c>
       <c r="B1">
-        <v>134118.46439229793</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>351089.75335148885</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>7280010.1888888888</v>
+        <v>33883518.857407406</v>
       </c>
       <c r="B2">
-        <v>132718.94899287578</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>410876.79690020438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>7329196.6650793646</v>
+        <v>33594163.257407404</v>
       </c>
       <c r="B3">
-        <v>134512.74016299131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>409613.09059631499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>7285629.1888888888</v>
+        <v>34039859.724074073</v>
       </c>
       <c r="B4">
-        <v>133113.22476356916</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>420896.77433957113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>7331416.9984126976</v>
+        <v>33905061.924074076</v>
       </c>
       <c r="B5">
-        <v>135318.1555461011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>420792.83342859725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>7351407.6650793646</v>
+        <v>34393254.835185185</v>
       </c>
       <c r="B6">
-        <v>140344.84384323441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>509684.17524728307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>7337050.4650793644</v>
+        <v>34376785.024074078</v>
       </c>
       <c r="B7">
-        <v>135517.46602328317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>467040.9382085409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>7342669.4650793644</v>
+        <v>34241987.224074073</v>
       </c>
       <c r="B8">
-        <v>135911.74179397651</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>466936.99729756702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>7298048.9888888886</v>
+        <v>34176865.824074075</v>
       </c>
       <c r="B9">
-        <v>133676.79518287108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>426784.83988306753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>7291924.8555555549</v>
+        <v>34401645.735185184</v>
       </c>
       <c r="B10">
-        <v>133113.46501990367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>515036.90824684675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>7297543.8555555549</v>
+        <v>33111368.057407405</v>
       </c>
       <c r="B11">
-        <v>133507.74079059702</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>364078.00985460548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>7182407.3507936513</v>
+        <v>33352667.724074073</v>
       </c>
       <c r="B12">
-        <v>130552.18626750492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>370620.69857473107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>7234089.0174603174</v>
+        <v>32893529.690740738</v>
       </c>
       <c r="B13">
-        <v>131601.66865471806</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>352428.01357422816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>7216901.9507936509</v>
+        <v>32262868.390740741</v>
       </c>
       <c r="B14">
-        <v>131571.99140555854</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>351093.35355780018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>7312151.0936507937</v>
+        <v>34548727.335185185</v>
       </c>
       <c r="B15">
-        <v>134020.98919219384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>565848.31655561947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>7194322.0174603174</v>
       </c>
@@ -12603,7 +12906,7 @@
         <v>130946.70229453278</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>7246003.6841269853</v>
       </c>
@@ -12611,7 +12914,7 @@
         <v>131996.18468174592</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>7055165.3507936513</v>
       </c>
@@ -12619,7 +12922,7 @@
         <v>130000.99057340114</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>7190407.3507936513</v>
       </c>
@@ -12627,7 +12930,7 @@
         <v>130873.90362139801</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>7242089.0174603174</v>
       </c>
@@ -12635,7 +12938,7 @@
         <v>131923.38600861115</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>7254003.6841269853</v>
       </c>
@@ -12643,7 +12946,7 @@
         <v>132317.90203563904</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>7361048.5222222218</v>
       </c>
@@ -12651,7 +12954,7 @@
         <v>141498.93343325154</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>7368887.8555555549</v>
       </c>
@@ -12659,7 +12962,7 @@
         <v>142698.62458705468</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>7346691.3222222216</v>
       </c>
@@ -12667,7 +12970,7 @@
         <v>136671.5556133003</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>7052699.4322751313</v>
       </c>
@@ -12675,7 +12978,7 @@
         <v>129988.78136809496</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>7144363.3063492058</v>
       </c>
@@ -12683,7 +12986,7 @@
         <v>130443.28273292237</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>7092737.4767195769</v>
       </c>
@@ -12691,7 +12994,7 @@
         <v>130243.83570026868</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>7184401.3507936513</v>
       </c>
@@ -12699,7 +13002,7 @@
         <v>130698.33706509609</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>7236083.0174603174</v>
       </c>
@@ -12707,7 +13010,7 @@
         <v>131747.81945230922</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>7196316.0174603174</v>
       </c>
@@ -12715,7 +13018,7 @@
         <v>131092.85309212396</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>6925457.4322751313</v>
       </c>
@@ -12723,7 +13026,7 @@
         <v>129437.58567399121</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>7017121.3063492058</v>
       </c>
@@ -12731,7 +13034,7 @@
         <v>129892.08703881862</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>6965495.4767195769</v>
       </c>
@@ -12739,7 +13042,7 @@
         <v>129692.64000616493</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>7057159.3507936513</v>
       </c>
@@ -12747,7 +13050,7 @@
         <v>130147.14137099234</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>7187744.6841269853</v>
       </c>
@@ -12755,7 +13058,7 @@
         <v>130872.69597924927</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>7239426.3507936513</v>
       </c>
@@ -12763,7 +13066,7 @@
         <v>131922.17836646241</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>7199659.3507936513</v>
       </c>
@@ -12771,7 +13074,7 @@
         <v>131267.21200627714</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>7251341.0174603174</v>
       </c>
@@ -12791,196 +13094,196 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B38"/>
+      <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>7023255.0074074073</v>
+        <v>36302590.148412704</v>
       </c>
       <c r="B1">
-        <v>130097.68490267752</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>526899.30250869412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>7114918.8814814826</v>
+        <v>36319231.755555555</v>
       </c>
       <c r="B2">
-        <v>130552.18626750492</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>532357.36819372838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>7120537.8814814826</v>
+        <v>36370959.044444449</v>
       </c>
       <c r="B3">
-        <v>130946.46203819827</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>534683.19091851986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>7166600.5481481487</v>
+        <v>35663969.812301584</v>
       </c>
       <c r="B4">
-        <v>131601.66865471806</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>513344.71925697627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>7149413.4814814823</v>
+        <v>35582506.291666672</v>
       </c>
       <c r="B5">
-        <v>131571.99140555854</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>512307.43377951131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>6969460.3629629631</v>
+        <v>35697711.091666669</v>
       </c>
       <c r="B6">
-        <v>129853.33472453785</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>522945.46432986716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>7061124.2370370375</v>
+        <v>38678592.492592596</v>
       </c>
       <c r="B7">
-        <v>130307.83608936526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>729136.63581628771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>7132452.5481481487</v>
+        <v>38213407.468783073</v>
       </c>
       <c r="B8">
-        <v>131340.97806522614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>677238.60322651721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>6987676.8814814826</v>
+        <v>38939897.892592594</v>
       </c>
       <c r="B9">
-        <v>130000.99057340114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>746054.32727026194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>6842218.3629629631</v>
+        <v>37813352.776719578</v>
       </c>
       <c r="B10">
-        <v>129302.1390304341</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>590568.09846261202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>6933882.2370370375</v>
+        <v>37865080.065608464</v>
       </c>
       <c r="B11">
-        <v>129756.64039526151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>592893.9211874035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>6847837.3629629631</v>
+        <v>37984052.765608467</v>
       </c>
       <c r="B12">
-        <v>129696.41480112745</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>602013.23203003267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>6985210.9629629627</v>
+        <v>38026933.8989418</v>
       </c>
       <c r="B13">
-        <v>129988.78136809496</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>670917.32793091971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>7076874.8370370371</v>
+        <v>38267802.848941796</v>
       </c>
       <c r="B14">
-        <v>130443.28273292237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>692282.01843059435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>7025249.0074074073</v>
+        <v>36852814.918518513</v>
       </c>
       <c r="B15">
-        <v>130243.83570026868</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>538836.29146822076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>7116912.8814814826</v>
+        <v>37013719.618518516</v>
       </c>
       <c r="B16">
-        <v>130698.33706509609</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>543760.79018985876</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>7122531.8814814826</v>
+        <v>37061547.618518516</v>
       </c>
       <c r="B17">
-        <v>131092.61283578945</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>544001.38219427143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>7168594.5481481487</v>
+        <v>37176792.029629633</v>
       </c>
       <c r="B18">
-        <v>131747.81945230922</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>569803.17811002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>7134446.5481481487</v>
+        <v>37084777.629629634</v>
       </c>
       <c r="B19">
-        <v>131487.12886281731</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>552680.2847780321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>7199935.1227513226</v>
+        <v>37171943.429629631</v>
       </c>
       <c r="B20">
-        <v>131893.38906538888</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>560678.4816438331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>7237806.8862433862</v>
+        <v>37256207.676719576</v>
       </c>
       <c r="B21">
-        <v>132063.74237635601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>581210.32009548077</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>7243831.5084656086</v>
+        <v>37343373.476719573</v>
       </c>
       <c r="B22">
-        <v>132463.89466070206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>589208.51696128177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>7283869.5529100522</v>
+        <v>37236461.826719582</v>
       </c>
       <c r="B23">
-        <v>132718.94899287578</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>576341.75574194803</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>7289488.5529100522</v>
       </c>
@@ -12988,7 +13291,7 @@
         <v>133113.22476356916</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>7301403.2195767201</v>
       </c>
@@ -12996,7 +13299,7 @@
         <v>133507.74079059702</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>7314876.01957672</v>
       </c>
@@ -13004,7 +13307,7 @@
         <v>134906.74242158225</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>7303240.9529100526</v>
       </c>
@@ -13012,7 +13315,7 @@
         <v>134402.61807609434</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>7352286.6365079368</v>
       </c>
@@ -13020,7 +13323,7 @@
         <v>136504.86542787327</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>7312075.3994708993</v>
       </c>
@@ -13028,7 +13331,7 @@
         <v>134452.75482519175</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>7357905.6365079368</v>
       </c>
@@ -13036,7 +13339,7 @@
         <v>136899.14119856662</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>7360125.9698412698</v>
       </c>
@@ -13044,7 +13347,7 @@
         <v>137704.55658167641</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>7380116.6365079368</v>
       </c>
@@ -13052,7 +13355,7 @@
         <v>142731.24487880975</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>7385735.6365079368</v>
       </c>
@@ -13060,7 +13363,7 @@
         <v>143125.5206495031</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>7387955.9698412698</v>
       </c>
@@ -13068,7 +13371,7 @@
         <v>143930.9360326129</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>7365759.4365079366</v>
       </c>
@@ -13076,7 +13379,7 @@
         <v>137903.86705885848</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>7325548.1994708991</v>
       </c>
@@ -13084,7 +13387,7 @@
         <v>135851.75645617698</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>7371378.4365079366</v>
       </c>
@@ -13092,7 +13395,7 @@
         <v>138298.14282955186</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>7373598.7698412696</v>
       </c>
@@ -13112,124 +13415,124 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B36"/>
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>7222622.5746031757</v>
+        <v>32815516.828571428</v>
       </c>
       <c r="B1">
-        <v>130307.83608936526</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>716872.12995376077</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>7238373.1746031754</v>
+        <v>32499028.509523809</v>
       </c>
       <c r="B2">
-        <v>130443.28273292237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>688807.70836926554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>7393621.2000000002</v>
+        <v>30957625.208862431</v>
       </c>
       <c r="B3">
-        <v>132718.94899287578</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>681533.14509169047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>7405535.8666666662</v>
+        <v>35365151.201058201</v>
       </c>
       <c r="B4">
-        <v>133113.46501990367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1164828.5759167809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>7417279</v>
+        <v>34440280.180952385</v>
       </c>
       <c r="B5">
-        <v>134071.07095356443</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>870393.05224114528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>7411154.8666666662</v>
+        <v>34656554.180952385</v>
       </c>
       <c r="B6">
-        <v>133507.74079059702</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>993049.63520226255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>7425132.7999999998</v>
+        <v>34096681.280952379</v>
       </c>
       <c r="B7">
-        <v>135075.79681385629</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>838227.87399246171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>7419008.666666666</v>
+        <v>33886528.747619048</v>
       </c>
       <c r="B8">
-        <v>134512.46665088888</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>825637.46032037016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>7430751.7999999998</v>
+        <v>34628880.180952385</v>
       </c>
       <c r="B9">
-        <v>135470.07258454966</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>906888.6872903466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>7296018.3619047618</v>
+        <v>35040329.380952381</v>
       </c>
       <c r="B10">
-        <v>130552.18626750492</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1088621.485354813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>7347700.0285714278</v>
+        <v>35241403.155952379</v>
       </c>
       <c r="B11">
-        <v>131601.66865471806</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1130169.1969196838</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>7330512.9619047623</v>
+        <v>34830176.847619049</v>
       </c>
       <c r="B12">
-        <v>131571.99140555854</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1076031.0716827216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>7382194.6285714284</v>
+        <v>34683491.714285709</v>
       </c>
       <c r="B13">
-        <v>132621.47379277169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1074243.2879926795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>7359614.6952380948</v>
+        <v>33330511.247619048</v>
       </c>
       <c r="B14">
-        <v>131996.18468174592</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>795512.02022091998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>7304018.3619047618</v>
       </c>
@@ -13237,7 +13540,7 @@
         <v>130873.90362139801</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>7315933.0285714278</v>
       </c>
@@ -13245,7 +13548,7 @@
         <v>131268.41964842589</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>7367614.6952380948</v>
       </c>
@@ -13253,7 +13556,7 @@
         <v>132317.90203563904</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>7421300.8571428563</v>
       </c>
@@ -13261,7 +13564,7 @@
         <v>134830.88477288821</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>7426919.8571428563</v>
       </c>
@@ -13269,7 +13572,7 @@
         <v>135225.16054358159</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>7420795.7238095244</v>
       </c>
@@ -13277,7 +13580,7 @@
         <v>134661.83038061418</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>7443006.7238095244</v>
       </c>
@@ -13285,7 +13588,7 @@
         <v>140493.93406085728</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>7454749.8571428563</v>
       </c>
@@ -13293,7 +13596,7 @@
         <v>141451.53999451804</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>7448625.7238095244</v>
       </c>
@@ -13301,7 +13604,7 @@
         <v>140888.20983155063</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>7456970.1904761903</v>
       </c>
@@ -13309,7 +13612,7 @@
         <v>142256.95537762783</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>7434773.6571428562</v>
       </c>
@@ -13317,7 +13620,7 @@
         <v>136229.88640387345</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>7442612.9904761901</v>
       </c>
@@ -13325,7 +13628,7 @@
         <v>137429.57755767659</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>7166310.4433862427</v>
       </c>
@@ -13333,7 +13636,7 @@
         <v>129988.78136809496</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>7298012.3619047618</v>
       </c>
@@ -13341,7 +13644,7 @@
         <v>130698.33706509609</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>7309927.0285714278</v>
       </c>
@@ -13349,7 +13652,7 @@
         <v>131092.85309212396</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>7039068.4433862427</v>
       </c>
@@ -13357,7 +13660,7 @@
         <v>129437.58567399121</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>7130732.3174603172</v>
       </c>
@@ -13365,7 +13668,7 @@
         <v>129892.08703881862</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>7079106.4878306882</v>
       </c>
@@ -13373,7 +13676,7 @@
         <v>129692.64000616493</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>7169653.7767195767</v>
       </c>
@@ -13381,7 +13684,7 @@
         <v>130163.14028224815</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>7301355.6952380948</v>
       </c>
@@ -13389,7 +13692,7 @@
         <v>130872.69597924927</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>7364952.0285714278</v>
       </c>
@@ -13397,7 +13700,7 @@
         <v>132316.6943934903</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>7042411.7767195767</v>
       </c>
@@ -13417,180 +13720,180 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B39"/>
+      <selection sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>7399745.333333334</v>
+        <v>39735875.243915342</v>
       </c>
       <c r="B1">
-        <v>133282.27915584319</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>974104.28526554001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>7437188.6761904759</v>
+        <v>39767285.843915343</v>
       </c>
       <c r="B2">
-        <v>134118.46439229793</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>981855.44023208565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>7393621.2000000002</v>
+        <v>39822009.058730163</v>
       </c>
       <c r="B3">
-        <v>132718.94899287578</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>982996.05194077443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>7405364.333333334</v>
+        <v>39647612.548677251</v>
       </c>
       <c r="B4">
-        <v>133676.55492653657</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>968184.43789945752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>7442807.6761904759</v>
+        <v>39554002.148677252</v>
       </c>
       <c r="B5">
-        <v>134512.74016299131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>959424.48418645316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>7470637.6761904759</v>
+        <v>40030122.434391536</v>
       </c>
       <c r="B6">
-        <v>140739.11961392776</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1010304.0758344093</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>7472858.0095238099</v>
+        <v>40087577.310582012</v>
       </c>
       <c r="B7">
-        <v>141544.53499703755</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1035661.695259431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>7456280.4761904757</v>
+        <v>40253559.817989416</v>
       </c>
       <c r="B8">
-        <v>135911.74179397651</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1088602.6199767513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>7458500.8095238097</v>
+        <v>38472723.179629631</v>
       </c>
       <c r="B9">
-        <v>136717.15717708631</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>864892.18397625326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>7204354.4878306882</v>
+        <v>38895015.57962963</v>
       </c>
       <c r="B10">
-        <v>130097.68490267752</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>924522.86590659525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>7347700.0285714278</v>
+        <v>38836851.6462963</v>
       </c>
       <c r="B11">
-        <v>131601.66865471806</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>907925.20019457769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>7425762.104761905</v>
+        <v>39118835.379629627</v>
       </c>
       <c r="B12">
-        <v>134020.98919219384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>932274.02087314101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>7382194.6285714284</v>
+        <v>40735151.777910046</v>
       </c>
       <c r="B13">
-        <v>132621.47379277169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1176375.0306284525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>7150559.8433862422</v>
+        <v>40804486.877910055</v>
       </c>
       <c r="B14">
-        <v>129853.33472453785</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1194629.8804470352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>7242223.7174603175</v>
+        <v>35411827.887962967</v>
       </c>
       <c r="B15">
-        <v>130307.83608936526</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>789563.77143563121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>7282261.7619047621</v>
+        <v>35443238.487962969</v>
       </c>
       <c r="B16">
-        <v>130562.89042153898</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>797314.92640217696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>7313552.0285714278</v>
+        <v>36284462.273148149</v>
       </c>
       <c r="B17">
-        <v>131340.97806522614</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>802291.67748142383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>7023317.8433862422</v>
+        <v>36265287.623148151</v>
       </c>
       <c r="B18">
-        <v>129302.1390304341</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>801106.84043913335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>7114981.7174603175</v>
+        <v>36845652.462037034</v>
       </c>
       <c r="B19">
-        <v>129756.64039526151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>813919.76251712232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>7063355.8878306886</v>
+        <v>39476695.894708999</v>
       </c>
       <c r="B20">
-        <v>129557.19336260782</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>948474.98216911231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>7355700.0285714278</v>
+        <v>39315757.105820104</v>
       </c>
       <c r="B21">
-        <v>131923.38600861115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>936846.89713341382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>7447234.9047619049</v>
       </c>
@@ -13598,7 +13901,7 @@
         <v>135741.70817707217</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>7290261.7619047621</v>
       </c>
@@ -13606,7 +13909,7 @@
         <v>130884.6077754321</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>7446829.5333333341</v>
       </c>
@@ -13614,7 +13917,7 @@
         <v>135272.55398231509</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>7482498.8666666662</v>
       </c>
@@ -13622,7 +13925,7 @@
         <v>142698.62458705468</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>7468141.666666666</v>
       </c>
@@ -13630,7 +13933,7 @@
         <v>137871.24676710347</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>7206348.4878306882</v>
       </c>
@@ -13638,7 +13941,7 @@
         <v>130243.83570026868</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>7355818.1619047625</v>
       </c>
@@ -13646,7 +13949,7 @@
         <v>132311.14961527663</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>7349694.0285714278</v>
       </c>
@@ -13654,7 +13957,7 @@
         <v>131747.81945230922</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>7152553.8433862422</v>
       </c>
@@ -13662,7 +13965,7 @@
         <v>129999.48552212905</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>7244217.7174603175</v>
       </c>
@@ -13670,7 +13973,7 @@
         <v>130453.98688695645</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>7284255.7619047621</v>
       </c>
@@ -13678,7 +13981,7 @@
         <v>130709.04121913017</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>7025311.8433862422</v>
       </c>
@@ -13686,7 +13989,7 @@
         <v>129448.2898280253</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>7065349.8878306886</v>
       </c>
@@ -13694,7 +13997,7 @@
         <v>129703.34416019902</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>7353037.3619047618</v>
       </c>
@@ -13702,7 +14005,7 @@
         <v>131922.17836646241</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>7358656.3619047618</v>
       </c>
@@ -13710,7 +14013,7 @@
         <v>132316.45413715579</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>7287599.0952380951</v>
       </c>
@@ -13718,7 +14021,7 @@
         <v>130883.40013328336</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>7313270.3619047618</v>
       </c>
@@ -13726,7 +14029,7 @@
         <v>131267.21200627714</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>7364952.0285714278</v>
       </c>
@@ -13746,84 +14049,84 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B34"/>
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>7141740.7719576713</v>
+        <v>45731874.172619052</v>
       </c>
       <c r="B1">
-        <v>129988.78136809496</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1427401.900470492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>7014498.7719576713</v>
+        <v>45787953.639285713</v>
       </c>
       <c r="B2">
-        <v>129437.58567399121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1429085.8179495668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>7437188.6761904759</v>
+        <v>44918588.472619049</v>
       </c>
       <c r="B3">
-        <v>134118.46439229793</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1424783.0219194377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>7393621.2000000002</v>
+        <v>43250819.75515873</v>
       </c>
       <c r="B4">
-        <v>132718.94899287578</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>907103.1753127249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>7439026.4095238093</v>
+        <v>44765601.645634919</v>
       </c>
       <c r="B5">
-        <v>135013.34167779525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1002034.7603084244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>7411660</v>
+        <v>42222611.261507928</v>
       </c>
       <c r="B6">
-        <v>133676.79518287108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>886556.19953529397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>7405535.8666666662</v>
+        <v>42394389.690079361</v>
       </c>
       <c r="B7">
-        <v>133113.46501990367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>888784.2254103946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>7411154.8666666662</v>
+        <v>42212427.147222228</v>
       </c>
       <c r="B8">
-        <v>133507.74079059702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>886556.19953529397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>7296018.3619047618</v>
+        <v>44113405.140079364</v>
       </c>
       <c r="B9">
-        <v>130552.18626750492</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>943499.81273675233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>7347700.0285714278</v>
       </c>
@@ -13831,7 +14134,7 @@
         <v>131601.66865471806</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>7425762.104761905</v>
       </c>
@@ -13839,7 +14142,7 @@
         <v>134020.98919219384</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>7382194.6285714284</v>
       </c>
@@ -13847,7 +14150,7 @@
         <v>132621.47379277169</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>7453592.104761905</v>
       </c>
@@ -13855,7 +14158,7 @@
         <v>140247.36864313032</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>7461431.4380952381</v>
       </c>
@@ -13863,7 +14166,7 @@
         <v>141447.05979693346</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>7359614.6952380948</v>
       </c>
@@ -13871,7 +14174,7 @@
         <v>131996.18468174592</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>7168776.3619047618</v>
       </c>
@@ -13879,7 +14182,7 @@
         <v>130000.99057340114</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>7300937.895238095</v>
       </c>
@@ -13887,7 +14190,7 @@
         <v>131252.29804708136</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>7355700.0285714278</v>
       </c>
@@ -13895,7 +14198,7 @@
         <v>131923.38600861115</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>7315933.0285714278</v>
       </c>
@@ -13903,7 +14206,7 @@
         <v>131268.41964842589</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>7367614.6952380948</v>
       </c>
@@ -13911,7 +14214,7 @@
         <v>132317.90203563904</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>7446829.5333333341</v>
       </c>
@@ -13919,7 +14222,7 @@
         <v>135272.55398231509</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>7474659.5333333341</v>
       </c>
@@ -13927,7 +14230,7 @@
         <v>141498.93343325154</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>7482498.8666666662</v>
       </c>
@@ -13935,7 +14238,7 @@
         <v>142698.62458705468</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>7448667.2666666657</v>
       </c>
@@ -13943,7 +14246,7 @@
         <v>136167.43126781238</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>7304136.4952380955</v>
       </c>
@@ -13951,7 +14254,7 @@
         <v>131261.66722806348</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>7298012.3619047618</v>
       </c>
@@ -13959,7 +14262,7 @@
         <v>130698.33706509609</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>7171929.4433862427</v>
       </c>
@@ -13967,7 +14270,7 @@
         <v>130383.05713878834</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>7349694.0285714278</v>
       </c>
@@ -13975,7 +14278,7 @@
         <v>131747.81945230922</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>7361608.6952380948</v>
       </c>
@@ -13983,7 +14286,7 @@
         <v>132142.33547933711</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>7170770.3619047618</v>
       </c>
@@ -13991,7 +14294,7 @@
         <v>130147.14137099234</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>7044687.4433862427</v>
       </c>
@@ -13999,7 +14302,7 @@
         <v>129831.86144468459</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>7298275.228571428</v>
       </c>
@@ -14007,7 +14310,7 @@
         <v>131251.09040493262</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>7353037.3619047618</v>
       </c>
@@ -14015,7 +14318,7 @@
         <v>131922.17836646241</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>7364952.0285714278</v>
       </c>
@@ -14035,108 +14338,108 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B40"/>
+      <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>7342638.130687831</v>
+        <v>51998258.7260582</v>
       </c>
       <c r="B1">
-        <v>132718.94899287578</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1506763.4231877392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>7384429.4735449729</v>
+        <v>51267094.150793649</v>
       </c>
       <c r="B2">
-        <v>135445.43035225125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1260491.4491437494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>7412259.4735449729</v>
+        <v>51587105.700793646</v>
       </c>
       <c r="B3">
-        <v>141671.8098031877</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1298898.2736159367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>7397902.2735449728</v>
+        <v>51628637.311904766</v>
       </c>
       <c r="B4">
-        <v>136844.43198323646</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1306646.6753654028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>7153371.418518519</v>
+        <v>51656650.800793648</v>
       </c>
       <c r="B5">
-        <v>130097.68490267752</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1325656.3389426707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>7245035.2925925925</v>
+        <v>50496278.509126984</v>
       </c>
       <c r="B6">
-        <v>130552.18626750492</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1120083.8790308386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>7302335.9592592595</v>
+        <v>49855486.209126987</v>
       </c>
       <c r="B7">
-        <v>131995.94442541141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1092651.6793057565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>7331211.5592592591</v>
+        <v>49180313.237301581</v>
       </c>
       <c r="B8">
-        <v>132621.47379277169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1080316.9940889471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>7256949.9592592595</v>
+        <v>49083809.937301576</v>
       </c>
       <c r="B9">
-        <v>130946.70229453278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1077512.3815146966</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>7352199.1021164013</v>
+        <v>49188804.903968252</v>
       </c>
       <c r="B10">
-        <v>133395.70008116806</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1085949.155871341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>7308631.6259259256</v>
+        <v>50844718.423412696</v>
       </c>
       <c r="B11">
-        <v>131996.18468174592</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1143217.6841060813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>7343126.2259259252</v>
+        <v>50465944.309126981</v>
       </c>
       <c r="B12">
-        <v>133015.98981979958</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1116980.5377277643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>7026129.418518519</v>
       </c>
@@ -14144,7 +14447,7 @@
         <v>129546.48920857374</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>7117793.2925925925</v>
       </c>
@@ -14152,7 +14455,7 @@
         <v>130000.99057340114</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>7253035.2925925925</v>
       </c>
@@ -14160,7 +14463,7 @@
         <v>130873.90362139801</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>7270568.9592592595</v>
       </c>
@@ -14168,7 +14471,7 @@
         <v>131662.69541911923</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>7360199.1021164013</v>
       </c>
@@ -14176,7 +14479,7 @@
         <v>133717.41743506119</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>7316631.6259259256</v>
       </c>
@@ -14184,7 +14487,7 @@
         <v>132317.90203563904</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>7351126.2259259252</v>
       </c>
@@ -14192,7 +14495,7 @@
         <v>133337.70717369267</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>7365108.1211640211</v>
       </c>
@@ -14200,7 +14503,7 @@
         <v>134578.97306586202</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>7373266.5306878313</v>
       </c>
@@ -14208,7 +14511,7 @@
         <v>134647.26487128931</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>7378885.5306878313</v>
       </c>
@@ -14216,7 +14519,7 @@
         <v>135041.54064198266</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>7388451.3306878312</v>
       </c>
@@ -14224,7 +14527,7 @@
         <v>136205.24417157503</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>7364193.6544973543</v>
       </c>
@@ -14232,7 +14535,7 @@
         <v>134267.5546099208</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>7406715.5306878313</v>
       </c>
@@ -14240,7 +14543,7 @@
         <v>141267.92009291914</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>7416281.3306878312</v>
       </c>
@@ -14248,7 +14551,7 @@
         <v>142431.62362251151</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>7392358.3306878312</v>
       </c>
@@ -14256,7 +14559,7 @@
         <v>136440.5422729679</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>7155365.418518519</v>
       </c>
@@ -14264,7 +14567,7 @@
         <v>130243.83570026868</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>7247029.2925925925</v>
       </c>
@@ -14272,7 +14575,7 @@
         <v>130698.33706509609</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>7298710.9592592595</v>
       </c>
@@ -14280,7 +14583,7 @@
         <v>131747.81945230922</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>7264562.9592592595</v>
       </c>
@@ -14288,7 +14591,7 @@
         <v>131487.12886281731</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>7310625.6259259256</v>
       </c>
@@ -14296,7 +14599,7 @@
         <v>132142.33547933711</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>7345120.2259259252</v>
       </c>
@@ -14304,7 +14607,7 @@
         <v>133162.14061739075</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>7028123.418518519</v>
       </c>
@@ -14312,7 +14615,7 @@
         <v>129692.64000616493</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>7158708.7518518521</v>
       </c>
@@ -14320,7 +14623,7 @@
         <v>130418.19461442187</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>7250372.6259259256</v>
       </c>
@@ -14328,7 +14631,7 @@
         <v>130872.69597924927</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>7357536.4354497353</v>
       </c>
@@ -14336,7 +14639,7 @@
         <v>133716.20979291244</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>7363155.4354497353</v>
       </c>
@@ -14344,7 +14647,7 @@
         <v>134110.48556360579</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>7348463.5592592591</v>
       </c>
@@ -14352,7 +14655,7 @@
         <v>133336.49953154393</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>7031466.7518518521</v>
       </c>
